--- a/result/0-shot/Baichuan-13B/extract/stratification/extract.xlsx
+++ b/result/0-shot/Baichuan-13B/extract/stratification/extract.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>B）中危</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>（B）低危</t>
+          <t>B）低危</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>（A）血压正常高值</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>（B）很高危</t>
+          <t>（A）低危</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>无法匹配</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>（A）高危</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -581,12 +581,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>（A）中危</t>
+          <t>（B）低危</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>（B）很高危</t>
+          <t>（D）中危</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>（A）高危</t>
+          <t>（D）中危</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -641,12 +641,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>（D）低危</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>（A）</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -741,12 +741,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>（D）中危</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>（A）中危</t>
+          <t>（B）低危</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>（A）很高危</t>
+          <t>（B）高危</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>（A）中危</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>（C）中危</t>
+          <t>（D）高危</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>（A）很高危</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>（B）很高危</t>
+          <t>（A）中危</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>（C）很高危</t>
+          <t>（A）中危</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>（A）中危</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>（C）很高危</t>
+          <t>（D）高危</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>（D）很高危</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>（B）很高危</t>
+          <t>（C）高危</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>（D）高危</t>
+          <t>（C）中危</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>（C）中危</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>（C）很高危</t>
+          <t>（A）高危</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>（B）很高危</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>C）高危</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>（B）中危</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>（B）低危</t>
+          <t>（A）高危</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>（B）低危</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>B）中危</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>无法匹配</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>（A）很高危</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>（C）很高危</t>
+          <t>（B）低危</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>无法匹配</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>（A）很高危</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>（C）很高危</t>
+          <t>（A）高危</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>（A）高危</t>
+          <t>（B）很高危</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1641,12 +1641,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>（A）很高危</t>
+          <t>（B）中危</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>无法匹配</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
